--- a/biology/Médecine/André_Durville/André_Durville.xlsx
+++ b/biology/Médecine/André_Durville/André_Durville.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Durville</t>
+          <t>André_Durville</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">André Durville (1896-1979) est un médecin français qui fut un des initiateurs du naturisme en France pendant l’entre-deux-guerres.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Durville</t>
+          <t>André_Durville</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">André Durville est le fils de l’occultiste Hector Durville. En 1924, il soutient sa thèse intitulée « l’action de la pensée sur les phénomènes de nutrition cellulaire ». Avec son frère Gaston, il fonde la Société Naturiste en 1927. Puis, tous deux créent le camp naturiste de Physiopolis sur l’île du Platais à Villennes-sur-Seine (région parisienne) en 1928[1].
-En 1932, avec son frère, ils créent le domaine naturiste d’Héliopolis sur l'île du Levant (une des îles d’Hyères), qu'ils découvrent en 1930[2]. Il s'agissait d'une ancienne colonie agricole pénitentiaire privée pour enfants (1857 à 1876)[3], au large du département du Var[4],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">André Durville est le fils de l’occultiste Hector Durville. En 1924, il soutient sa thèse intitulée « l’action de la pensée sur les phénomènes de nutrition cellulaire ». Avec son frère Gaston, il fonde la Société Naturiste en 1927. Puis, tous deux créent le camp naturiste de Physiopolis sur l’île du Platais à Villennes-sur-Seine (région parisienne) en 1928.
+En 1932, avec son frère, ils créent le domaine naturiste d’Héliopolis sur l'île du Levant (une des îles d’Hyères), qu'ils découvrent en 1930. Il s'agissait d'une ancienne colonie agricole pénitentiaire privée pour enfants (1857 à 1876), au large du département du Var,.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Durville</t>
+          <t>André_Durville</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La cuisine saine, ce qu'il faut manger pour conserver sa santé et pour se guérir, avec Gaston Durville, 3e éd., Paris, Ed. de "Naturisme", 1934 ;
 L’art d'être heureux, éducation des facultés supérieures de l'esprit, avec Gaston Durville ;
